--- a/experiments/finished exp/adults-all-exp/adult-all/body_weight.xlsx
+++ b/experiments/finished exp/adults-all-exp/adult-all/body_weight.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Chercheurs\Santos_Manuela\Thibault M\gut-microbiota-iron\experiments\finished exp\adults-all-exp\adult-all\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thibault\Documents\CHUM_git\gut-microbiota-iron\experiments\finished exp\adults-all-exp\adult-all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC7DBC-335A-4E21-95EF-D87CA4470773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD3AFF4-60D4-4DDF-9057-2F79F8CA58AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="174">
   <si>
     <t>Cage</t>
   </si>
@@ -316,6 +327,237 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>2024-06-19</t>
+  </si>
+  <si>
+    <t>2024-06-26</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>2024-07-17</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>2024-07-31</t>
+  </si>
+  <si>
+    <t>2024-08-07</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>2024-08-21</t>
+  </si>
+  <si>
+    <t>2024-08-28</t>
+  </si>
+  <si>
+    <t>2024-09-04</t>
+  </si>
+  <si>
+    <t>2024-09-11</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>2024-10-02</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>21.2</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>19.6</t>
+  </si>
+  <si>
+    <t>18.2</t>
+  </si>
+  <si>
+    <t>20.2</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>22.2</t>
+  </si>
+  <si>
+    <t>21.9</t>
+  </si>
+  <si>
+    <t>20.8</t>
+  </si>
+  <si>
+    <t>18.6</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>21.7</t>
+  </si>
+  <si>
+    <t>21.8</t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>20.9</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>20.3</t>
+  </si>
+  <si>
+    <t>24.8</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>23.6</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>19.4</t>
+  </si>
+  <si>
+    <t>20.6</t>
+  </si>
+  <si>
+    <t>18.9</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>22.1</t>
+  </si>
+  <si>
+    <t>21.6</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>22.6</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>22.3</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>21.3</t>
+  </si>
+  <si>
+    <t>18.8</t>
+  </si>
+  <si>
+    <t>22.8</t>
+  </si>
+  <si>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>23.9</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>19.3</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>17.8</t>
+  </si>
+  <si>
+    <t>18.4</t>
+  </si>
+  <si>
+    <t>17.3</t>
+  </si>
+  <si>
+    <t>23.2</t>
+  </si>
+  <si>
+    <t>24.6</t>
+  </si>
+  <si>
+    <t>19.8</t>
+  </si>
+  <si>
+    <t>22.7</t>
+  </si>
+  <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>23.4</t>
+  </si>
+  <si>
+    <t>28.4</t>
+  </si>
+  <si>
+    <t>25.2</t>
+  </si>
+  <si>
+    <t>27.2</t>
+  </si>
+  <si>
+    <t>25.1</t>
+  </si>
+  <si>
+    <t>30.8</t>
+  </si>
+  <si>
+    <t>30.1</t>
+  </si>
+  <si>
+    <t>22.4</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
   </si>
 </sst>
 </file>
@@ -325,7 +567,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +578,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -413,14 +661,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -433,21 +680,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,34 +976,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE27" sqref="AE27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="13.08984375" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" customWidth="1"/>
+    <col min="21" max="21" width="12.26953125" customWidth="1"/>
+    <col min="22" max="22" width="12.54296875" customWidth="1"/>
+    <col min="23" max="23" width="12.81640625" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
     <col min="28" max="28" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -773,94 +1020,78 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16">
-        <v>45462</v>
-      </c>
-      <c r="G1" s="16">
-        <f>F1+7</f>
-        <v>45469</v>
-      </c>
-      <c r="H1" s="16">
-        <f t="shared" ref="H1:AB1" si="0">G1+7</f>
-        <v>45476</v>
-      </c>
-      <c r="I1" s="16">
-        <f t="shared" si="0"/>
-        <v>45483</v>
-      </c>
-      <c r="J1" s="16">
-        <f t="shared" si="0"/>
-        <v>45490</v>
-      </c>
-      <c r="K1" s="16">
-        <f t="shared" si="0"/>
-        <v>45497</v>
-      </c>
-      <c r="L1" s="16">
-        <f t="shared" si="0"/>
-        <v>45504</v>
-      </c>
-      <c r="M1" s="16">
-        <f t="shared" si="0"/>
-        <v>45511</v>
-      </c>
-      <c r="N1" s="16">
-        <f t="shared" si="0"/>
-        <v>45518</v>
-      </c>
-      <c r="O1" s="16">
-        <f t="shared" si="0"/>
-        <v>45525</v>
-      </c>
-      <c r="P1" s="16">
-        <f t="shared" si="0"/>
-        <v>45532</v>
-      </c>
-      <c r="Q1" s="16">
-        <f t="shared" si="0"/>
-        <v>45539</v>
-      </c>
-      <c r="R1" s="16">
-        <f t="shared" si="0"/>
-        <v>45546</v>
-      </c>
-      <c r="S1" s="16">
-        <f t="shared" si="0"/>
-        <v>45553</v>
-      </c>
-      <c r="T1" s="16">
-        <f t="shared" si="0"/>
-        <v>45560</v>
-      </c>
-      <c r="U1" s="16">
-        <f t="shared" si="0"/>
-        <v>45567</v>
-      </c>
-      <c r="V1" s="16">
-        <f t="shared" si="0"/>
-        <v>45574</v>
-      </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>50</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2">
@@ -869,6 +1100,9 @@
       <c r="G2">
         <v>21.6</v>
       </c>
+      <c r="H2" t="s">
+        <v>113</v>
+      </c>
       <c r="I2">
         <v>22.3</v>
       </c>
@@ -912,20 +1146,20 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>50</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F3">
@@ -934,6 +1168,9 @@
       <c r="G3">
         <v>20.7</v>
       </c>
+      <c r="H3" t="s">
+        <v>114</v>
+      </c>
       <c r="I3">
         <v>21.7</v>
       </c>
@@ -977,20 +1214,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>50</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F4">
@@ -999,6 +1236,9 @@
       <c r="G4">
         <v>19.5</v>
       </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
       <c r="I4">
         <v>20.5</v>
       </c>
@@ -1042,20 +1282,20 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>50</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F5">
@@ -1064,6 +1304,9 @@
       <c r="G5">
         <v>19.5</v>
       </c>
+      <c r="H5" t="s">
+        <v>116</v>
+      </c>
       <c r="I5">
         <v>19.600000000000001</v>
       </c>
@@ -1107,20 +1350,20 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>50</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F6">
@@ -1129,6 +1372,9 @@
       <c r="G6">
         <v>18</v>
       </c>
+      <c r="H6" t="s">
+        <v>117</v>
+      </c>
       <c r="I6">
         <v>18.5</v>
       </c>
@@ -1172,20 +1418,20 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>50</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F7">
@@ -1194,6 +1440,9 @@
       <c r="G7">
         <v>20</v>
       </c>
+      <c r="H7" t="s">
+        <v>118</v>
+      </c>
       <c r="I7">
         <v>20.3</v>
       </c>
@@ -1237,20 +1486,20 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>50</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F8">
@@ -1259,6 +1508,9 @@
       <c r="G8">
         <v>20.2</v>
       </c>
+      <c r="H8" t="s">
+        <v>114</v>
+      </c>
       <c r="I8">
         <v>22.3</v>
       </c>
@@ -1302,20 +1554,20 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>50</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F9">
@@ -1324,6 +1576,9 @@
       <c r="G9">
         <v>21.2</v>
       </c>
+      <c r="H9" t="s">
+        <v>119</v>
+      </c>
       <c r="I9">
         <v>21.7</v>
       </c>
@@ -1367,20 +1622,20 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>50</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F10">
@@ -1389,6 +1644,9 @@
       <c r="G10">
         <v>20.2</v>
       </c>
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
       <c r="I10">
         <v>22.6</v>
       </c>
@@ -1432,20 +1690,20 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>50</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F11">
@@ -1454,6 +1712,9 @@
       <c r="G11">
         <v>20.7</v>
       </c>
+      <c r="H11" t="s">
+        <v>120</v>
+      </c>
       <c r="I11">
         <v>23.8</v>
       </c>
@@ -1497,20 +1758,20 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>50</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F12">
@@ -1519,6 +1780,9 @@
       <c r="G12">
         <v>21.3</v>
       </c>
+      <c r="H12" t="s">
+        <v>121</v>
+      </c>
       <c r="I12">
         <v>22.5</v>
       </c>
@@ -1562,20 +1826,20 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>50</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F13">
@@ -1584,6 +1848,9 @@
       <c r="G13">
         <v>18.7</v>
       </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
       <c r="I13">
         <v>21.2</v>
       </c>
@@ -1627,20 +1894,20 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>500</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F14">
@@ -1649,6 +1916,9 @@
       <c r="G14">
         <v>19.7</v>
       </c>
+      <c r="H14" t="s">
+        <v>122</v>
+      </c>
       <c r="I14">
         <v>22</v>
       </c>
@@ -1692,20 +1962,20 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>500</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F15">
@@ -1714,6 +1984,9 @@
       <c r="G15">
         <v>20.5</v>
       </c>
+      <c r="H15" t="s">
+        <v>114</v>
+      </c>
       <c r="I15">
         <v>22</v>
       </c>
@@ -1757,20 +2030,20 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>500</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F16">
@@ -1779,6 +2052,9 @@
       <c r="G16">
         <v>17.5</v>
       </c>
+      <c r="H16" t="s">
+        <v>123</v>
+      </c>
       <c r="I16">
         <v>19.8</v>
       </c>
@@ -1822,20 +2098,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="17" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>500</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F17">
@@ -1844,6 +2120,9 @@
       <c r="G17">
         <v>20.6</v>
       </c>
+      <c r="H17" t="s">
+        <v>124</v>
+      </c>
       <c r="I17">
         <v>21.5</v>
       </c>
@@ -1887,20 +2166,20 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>500</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F18">
@@ -1909,6 +2188,9 @@
       <c r="G18">
         <v>22.5</v>
       </c>
+      <c r="H18" t="s">
+        <v>125</v>
+      </c>
       <c r="I18">
         <v>24.9</v>
       </c>
@@ -1952,20 +2234,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="19" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
         <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>500</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F19">
@@ -1974,6 +2256,9 @@
       <c r="G19">
         <v>20.5</v>
       </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
       <c r="I19">
         <v>21.4</v>
       </c>
@@ -1990,20 +2275,20 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>500</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F20">
@@ -2012,6 +2297,9 @@
       <c r="G20">
         <v>20.2</v>
       </c>
+      <c r="H20" t="s">
+        <v>126</v>
+      </c>
       <c r="I20">
         <v>23.2</v>
       </c>
@@ -2055,20 +2343,20 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="21" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
         <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>500</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F21">
@@ -2077,6 +2365,9 @@
       <c r="G21">
         <v>20.399999999999999</v>
       </c>
+      <c r="H21" t="s">
+        <v>119</v>
+      </c>
       <c r="I21">
         <v>22.5</v>
       </c>
@@ -2120,20 +2411,20 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>500</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F22">
@@ -2142,6 +2433,9 @@
       <c r="G22">
         <v>21.6</v>
       </c>
+      <c r="H22" t="s">
+        <v>113</v>
+      </c>
       <c r="I22">
         <v>22.3</v>
       </c>
@@ -2185,20 +2479,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+    <row r="23" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
         <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>500</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F23">
@@ -2207,6 +2501,9 @@
       <c r="G23">
         <v>21.1</v>
       </c>
+      <c r="H23" t="s">
+        <v>127</v>
+      </c>
       <c r="I23">
         <v>22.5</v>
       </c>
@@ -2250,20 +2547,20 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>500</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F24">
@@ -2272,6 +2569,9 @@
       <c r="G24">
         <v>21.3</v>
       </c>
+      <c r="H24" t="s">
+        <v>128</v>
+      </c>
       <c r="I24">
         <v>20.9</v>
       </c>
@@ -2315,20 +2615,20 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+    <row r="25" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
         <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>500</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F25">
@@ -2337,6 +2637,9 @@
       <c r="G25">
         <v>20.5</v>
       </c>
+      <c r="H25" t="s">
+        <v>126</v>
+      </c>
       <c r="I25">
         <v>22.9</v>
       </c>
@@ -2380,20 +2683,20 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+    <row r="26" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
         <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>50</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F26">
@@ -2408,6 +2711,9 @@
       <c r="I26">
         <v>19.5</v>
       </c>
+      <c r="J26" t="s">
+        <v>129</v>
+      </c>
       <c r="K26">
         <v>20.9</v>
       </c>
@@ -2445,20 +2751,20 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+    <row r="27" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
         <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>50</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F27">
@@ -2473,6 +2779,9 @@
       <c r="I27">
         <v>18</v>
       </c>
+      <c r="J27" t="s">
+        <v>130</v>
+      </c>
       <c r="K27">
         <v>18.5</v>
       </c>
@@ -2510,20 +2819,20 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+    <row r="28" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>50</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F28">
@@ -2538,6 +2847,9 @@
       <c r="I28">
         <v>19.2</v>
       </c>
+      <c r="J28" t="s">
+        <v>131</v>
+      </c>
       <c r="K28">
         <v>19.399999999999999</v>
       </c>
@@ -2575,20 +2887,20 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+    <row r="29" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
         <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>50</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F29">
@@ -2603,6 +2915,9 @@
       <c r="I29">
         <v>22.6</v>
       </c>
+      <c r="J29" t="s">
+        <v>132</v>
+      </c>
       <c r="K29">
         <v>22.4</v>
       </c>
@@ -2640,20 +2955,20 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+    <row r="30" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
         <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>50</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F30">
@@ -2668,6 +2983,9 @@
       <c r="I30">
         <v>22.8</v>
       </c>
+      <c r="J30" t="s">
+        <v>133</v>
+      </c>
       <c r="K30">
         <v>24.5</v>
       </c>
@@ -2705,20 +3023,20 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+    <row r="31" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
         <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>50</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F31">
@@ -2733,6 +3051,9 @@
       <c r="I31">
         <v>21.4</v>
       </c>
+      <c r="J31" t="s">
+        <v>128</v>
+      </c>
       <c r="K31">
         <v>21.6</v>
       </c>
@@ -2770,20 +3091,20 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+    <row r="32" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
         <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>50</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F32">
@@ -2798,6 +3119,9 @@
       <c r="I32">
         <v>20.9</v>
       </c>
+      <c r="J32" t="s">
+        <v>134</v>
+      </c>
       <c r="K32">
         <v>21.3</v>
       </c>
@@ -2835,20 +3159,20 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+    <row r="33" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
         <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>50</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F33">
@@ -2863,6 +3187,9 @@
       <c r="I33">
         <v>20.9</v>
       </c>
+      <c r="J33" t="s">
+        <v>135</v>
+      </c>
       <c r="K33">
         <v>22.7</v>
       </c>
@@ -2900,20 +3227,20 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+    <row r="34" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
         <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>50</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F34">
@@ -2928,6 +3255,9 @@
       <c r="I34">
         <v>21.8</v>
       </c>
+      <c r="J34" t="s">
+        <v>121</v>
+      </c>
       <c r="K34">
         <v>23.4</v>
       </c>
@@ -2965,20 +3295,20 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+    <row r="35" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
         <v>17</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>50</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F35">
@@ -2993,6 +3323,9 @@
       <c r="I35">
         <v>22.6</v>
       </c>
+      <c r="J35" t="s">
+        <v>136</v>
+      </c>
       <c r="K35">
         <v>23</v>
       </c>
@@ -3030,20 +3363,20 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+    <row r="36" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
         <v>18</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>50</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F36">
@@ -3058,6 +3391,9 @@
       <c r="I36">
         <v>19.5</v>
       </c>
+      <c r="J36" t="s">
+        <v>116</v>
+      </c>
       <c r="K36">
         <v>21.1</v>
       </c>
@@ -3095,20 +3431,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+    <row r="37" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
         <v>18</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>50</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F37">
@@ -3123,6 +3459,9 @@
       <c r="I37">
         <v>21.9</v>
       </c>
+      <c r="J37" t="s">
+        <v>127</v>
+      </c>
       <c r="K37">
         <v>23</v>
       </c>
@@ -3160,20 +3499,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+    <row r="38" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
         <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <v>500</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F38">
@@ -3188,6 +3527,9 @@
       <c r="I38">
         <v>23.5</v>
       </c>
+      <c r="J38" t="s">
+        <v>137</v>
+      </c>
       <c r="K38">
         <v>24.4</v>
       </c>
@@ -3225,20 +3567,20 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+    <row r="39" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
         <v>19</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>500</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F39">
@@ -3253,6 +3595,9 @@
       <c r="I39">
         <v>22.1</v>
       </c>
+      <c r="J39" t="s">
+        <v>138</v>
+      </c>
       <c r="K39">
         <v>22.5</v>
       </c>
@@ -3290,20 +3635,20 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+    <row r="40" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
         <v>20</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>500</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F40">
@@ -3318,6 +3663,9 @@
       <c r="I40">
         <v>22.2</v>
       </c>
+      <c r="J40" t="s">
+        <v>139</v>
+      </c>
       <c r="K40">
         <v>24.2</v>
       </c>
@@ -3355,20 +3703,20 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+    <row r="41" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
         <v>20</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
         <v>500</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F41">
@@ -3383,6 +3731,9 @@
       <c r="I41">
         <v>19.2</v>
       </c>
+      <c r="J41" t="s">
+        <v>140</v>
+      </c>
       <c r="K41">
         <v>20.2</v>
       </c>
@@ -3420,20 +3771,20 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+    <row r="42" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
         <v>21</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>500</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F42">
@@ -3448,6 +3799,9 @@
       <c r="I42">
         <v>21.5</v>
       </c>
+      <c r="J42" t="s">
+        <v>122</v>
+      </c>
       <c r="K42">
         <v>23.1</v>
       </c>
@@ -3485,20 +3839,20 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+    <row r="43" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
         <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>500</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F43">
@@ -3513,6 +3867,9 @@
       <c r="I43">
         <v>20.2</v>
       </c>
+      <c r="J43" t="s">
+        <v>124</v>
+      </c>
       <c r="K43">
         <v>20.8</v>
       </c>
@@ -3550,20 +3907,20 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+    <row r="44" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
         <v>22</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>500</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F44">
@@ -3578,6 +3935,9 @@
       <c r="I44">
         <v>20.3</v>
       </c>
+      <c r="J44" t="s">
+        <v>140</v>
+      </c>
       <c r="K44">
         <v>20.2</v>
       </c>
@@ -3615,20 +3975,20 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+    <row r="45" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <v>500</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F45">
@@ -3643,6 +4003,9 @@
       <c r="I45">
         <v>21.9</v>
       </c>
+      <c r="J45" t="s">
+        <v>141</v>
+      </c>
       <c r="K45">
         <v>21.7</v>
       </c>
@@ -3680,20 +4043,20 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+    <row r="46" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
         <v>23</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46">
         <v>500</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F46">
@@ -3708,6 +4071,9 @@
       <c r="I46">
         <v>19.600000000000001</v>
       </c>
+      <c r="J46" t="s">
+        <v>142</v>
+      </c>
       <c r="K46">
         <v>20.2</v>
       </c>
@@ -3745,20 +4111,20 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+    <row r="47" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="7">
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <v>500</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F47">
@@ -3773,6 +4139,9 @@
       <c r="I47">
         <v>21</v>
       </c>
+      <c r="J47" t="s">
+        <v>143</v>
+      </c>
       <c r="K47">
         <v>22.8</v>
       </c>
@@ -3810,20 +4179,20 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+    <row r="48" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
         <v>24</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48">
         <v>500</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F48">
@@ -3838,6 +4207,9 @@
       <c r="I48">
         <v>21.2</v>
       </c>
+      <c r="J48" t="s">
+        <v>122</v>
+      </c>
       <c r="K48">
         <v>20.2</v>
       </c>
@@ -3875,20 +4247,20 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+    <row r="49" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="7">
         <v>24</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49">
         <v>500</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F49">
@@ -3903,6 +4275,9 @@
       <c r="I49">
         <v>21.1</v>
       </c>
+      <c r="J49" t="s">
+        <v>144</v>
+      </c>
       <c r="K49">
         <v>21.4</v>
       </c>
@@ -3940,25 +4315,28 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C50">
         <v>50</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F50">
         <v>22</v>
       </c>
+      <c r="G50" t="s">
+        <v>145</v>
+      </c>
       <c r="H50">
         <v>22.1</v>
       </c>
@@ -4005,25 +4383,28 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+    <row r="51" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
         <v>1</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F51">
         <v>20.100000000000001</v>
       </c>
+      <c r="G51" t="s">
+        <v>146</v>
+      </c>
       <c r="H51">
         <v>21.1</v>
       </c>
@@ -4070,11 +4451,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C52">
@@ -4083,12 +4464,15 @@
       <c r="D52" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F52">
         <v>19.399999999999999</v>
       </c>
+      <c r="G52" t="s">
+        <v>124</v>
+      </c>
       <c r="H52">
         <v>21.3</v>
       </c>
@@ -4114,11 +4498,11 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+    <row r="53" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
         <v>2</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="8">
         <v>36695</v>
       </c>
       <c r="C53">
@@ -4127,12 +4511,15 @@
       <c r="D53" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F53">
         <v>21.7</v>
       </c>
+      <c r="G53" t="s">
+        <v>137</v>
+      </c>
       <c r="H53">
         <v>23.7</v>
       </c>
@@ -4158,11 +4545,11 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>3</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C54">
@@ -4171,12 +4558,15 @@
       <c r="D54" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F54">
         <v>21.9</v>
       </c>
+      <c r="G54" t="s">
+        <v>119</v>
+      </c>
       <c r="H54">
         <v>21.5</v>
       </c>
@@ -4223,11 +4613,11 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+    <row r="55" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
         <v>3</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C55">
@@ -4236,12 +4626,15 @@
       <c r="D55" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F55">
         <v>20.2</v>
       </c>
+      <c r="G55" t="s">
+        <v>131</v>
+      </c>
       <c r="H55">
         <v>20.9</v>
       </c>
@@ -4288,11 +4681,11 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>4</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C56">
@@ -4301,12 +4694,15 @@
       <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F56">
         <v>19.3</v>
       </c>
+      <c r="G56" t="s">
+        <v>143</v>
+      </c>
       <c r="H56">
         <v>20.399999999999999</v>
       </c>
@@ -4353,11 +4749,11 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+    <row r="57" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
         <v>4</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C57">
@@ -4366,12 +4762,15 @@
       <c r="D57" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F57">
         <v>21.1</v>
       </c>
+      <c r="G57" t="s">
+        <v>147</v>
+      </c>
       <c r="H57">
         <v>21.8</v>
       </c>
@@ -4418,11 +4817,11 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>5</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C58">
@@ -4431,12 +4830,15 @@
       <c r="D58" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F58">
         <v>21</v>
       </c>
+      <c r="G58" t="s">
+        <v>113</v>
+      </c>
       <c r="H58">
         <v>24</v>
       </c>
@@ -4462,11 +4864,11 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+    <row r="59" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
         <v>5</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="8">
         <v>36801</v>
       </c>
       <c r="C59">
@@ -4475,12 +4877,15 @@
       <c r="D59" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F59">
         <v>18.600000000000001</v>
       </c>
+      <c r="G59" t="s">
+        <v>148</v>
+      </c>
       <c r="H59">
         <v>18.7</v>
       </c>
@@ -4506,11 +4911,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>6</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C60">
@@ -4519,12 +4924,15 @@
       <c r="D60" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F60">
         <v>20.8</v>
       </c>
+      <c r="G60" t="s">
+        <v>124</v>
+      </c>
       <c r="H60">
         <v>22.3</v>
       </c>
@@ -4571,11 +4979,11 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+    <row r="61" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
         <v>6</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C61">
@@ -4584,12 +4992,15 @@
       <c r="D61" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F61">
         <v>21.2</v>
       </c>
+      <c r="G61" t="s">
+        <v>124</v>
+      </c>
       <c r="H61">
         <v>21.8</v>
       </c>
@@ -4636,11 +5047,11 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>7</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C62">
@@ -4649,12 +5060,15 @@
       <c r="D62" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F62">
         <v>20.3</v>
       </c>
+      <c r="G62" t="s">
+        <v>149</v>
+      </c>
       <c r="H62">
         <v>21.8</v>
       </c>
@@ -4701,11 +5115,11 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+    <row r="63" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
         <v>7</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C63">
@@ -4714,12 +5128,15 @@
       <c r="D63" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F63">
         <v>22.3</v>
       </c>
+      <c r="G63" t="s">
+        <v>139</v>
+      </c>
       <c r="H63">
         <v>23</v>
       </c>
@@ -4766,11 +5183,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>8</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="8">
         <v>36670</v>
       </c>
       <c r="C64">
@@ -4779,12 +5196,15 @@
       <c r="D64" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F64">
         <v>20.6</v>
       </c>
+      <c r="G64" t="s">
+        <v>150</v>
+      </c>
       <c r="H64">
         <v>20.7</v>
       </c>
@@ -4810,11 +5230,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
+    <row r="65" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
         <v>8</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C65">
@@ -4823,12 +5243,15 @@
       <c r="D65" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F65">
         <v>22.1</v>
       </c>
+      <c r="G65" t="s">
+        <v>143</v>
+      </c>
       <c r="H65">
         <v>22.3</v>
       </c>
@@ -4854,11 +5277,11 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>9</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C66">
@@ -4867,12 +5290,15 @@
       <c r="D66" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F66">
         <v>23</v>
       </c>
+      <c r="G66" t="s">
+        <v>151</v>
+      </c>
       <c r="H66">
         <v>24.7</v>
       </c>
@@ -4919,11 +5345,11 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+    <row r="67" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
         <v>9</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C67">
@@ -4932,12 +5358,15 @@
       <c r="D67" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F67">
         <v>22.1</v>
       </c>
+      <c r="G67" t="s">
+        <v>134</v>
+      </c>
       <c r="H67">
         <v>24.2</v>
       </c>
@@ -4984,11 +5413,11 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>10</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C68">
@@ -4997,12 +5426,15 @@
       <c r="D68" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F68">
         <v>20.399999999999999</v>
       </c>
+      <c r="G68" t="s">
+        <v>152</v>
+      </c>
       <c r="H68">
         <v>21.8</v>
       </c>
@@ -5049,11 +5481,11 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+    <row r="69" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
         <v>10</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C69">
@@ -5062,12 +5494,15 @@
       <c r="D69" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F69">
         <v>20.7</v>
       </c>
+      <c r="G69" t="s">
+        <v>116</v>
+      </c>
       <c r="H69">
         <v>21.5</v>
       </c>
@@ -5114,11 +5549,11 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>11</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C70">
@@ -5127,12 +5562,15 @@
       <c r="D70" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F70">
         <v>21.2</v>
       </c>
+      <c r="G70" t="s">
+        <v>153</v>
+      </c>
       <c r="H70">
         <v>23.5</v>
       </c>
@@ -5158,11 +5596,11 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
+    <row r="71" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
         <v>11</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C71">
@@ -5171,12 +5609,15 @@
       <c r="D71" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F71">
         <v>20.399999999999999</v>
       </c>
+      <c r="G71" t="s">
+        <v>131</v>
+      </c>
       <c r="H71">
         <v>20.6</v>
       </c>
@@ -5202,11 +5643,11 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>12</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C72">
@@ -5215,12 +5656,15 @@
       <c r="D72" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F72">
         <v>19.399999999999999</v>
       </c>
+      <c r="G72" t="s">
+        <v>124</v>
+      </c>
       <c r="H72">
         <v>22.5</v>
       </c>
@@ -5267,11 +5711,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+    <row r="73" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
         <v>12</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C73">
@@ -5280,12 +5724,15 @@
       <c r="D73" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F73">
         <v>20.3</v>
       </c>
+      <c r="G73" t="s">
+        <v>138</v>
+      </c>
       <c r="H73">
         <v>21.5</v>
       </c>
@@ -5332,11 +5779,11 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="11">
+    <row r="74" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="14">
         <v>291360</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C74">
@@ -5345,7 +5792,7 @@
       <c r="D74" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F74">
@@ -5354,9 +5801,15 @@
       <c r="G74">
         <v>18.399999999999999</v>
       </c>
+      <c r="H74" t="s">
+        <v>141</v>
+      </c>
       <c r="I74">
         <v>19.8</v>
       </c>
+      <c r="J74" t="s">
+        <v>128</v>
+      </c>
       <c r="K74">
         <v>21.2</v>
       </c>
@@ -5381,19 +5834,22 @@
       <c r="R74">
         <v>24.1</v>
       </c>
+      <c r="S74" t="s">
+        <v>132</v>
+      </c>
       <c r="T74">
         <v>24.2</v>
       </c>
       <c r="U74">
         <v>24</v>
       </c>
-      <c r="V74" s="17">
+      <c r="V74">
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="14" t="s">
+    <row r="75" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="15"/>
+      <c r="B75" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C75">
@@ -5402,7 +5858,7 @@
       <c r="D75" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F75">
@@ -5411,9 +5867,15 @@
       <c r="G75">
         <v>19.399999999999999</v>
       </c>
+      <c r="H75" t="s">
+        <v>115</v>
+      </c>
       <c r="I75">
         <v>20.9</v>
       </c>
+      <c r="J75" t="s">
+        <v>119</v>
+      </c>
       <c r="K75">
         <v>22.2</v>
       </c>
@@ -5438,21 +5900,24 @@
       <c r="R75">
         <v>24.3</v>
       </c>
+      <c r="S75" t="s">
+        <v>165</v>
+      </c>
       <c r="T75">
         <v>22.8</v>
       </c>
       <c r="U75">
         <v>24.9</v>
       </c>
-      <c r="V75" s="17">
+      <c r="V75">
         <v>25.9</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="11">
+    <row r="76" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="14">
         <v>291361</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C76">
@@ -5461,7 +5926,7 @@
       <c r="D76" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F76">
@@ -5470,9 +5935,15 @@
       <c r="G76">
         <v>17.5</v>
       </c>
+      <c r="H76" t="s">
+        <v>154</v>
+      </c>
       <c r="I76">
         <v>18.8</v>
       </c>
+      <c r="J76" t="s">
+        <v>152</v>
+      </c>
       <c r="K76">
         <v>19.7</v>
       </c>
@@ -5497,19 +5968,22 @@
       <c r="R76">
         <v>22.6</v>
       </c>
+      <c r="S76" t="s">
+        <v>137</v>
+      </c>
       <c r="T76">
         <v>24.3</v>
       </c>
       <c r="U76">
         <v>25.7</v>
       </c>
-      <c r="V76" s="17">
+      <c r="V76">
         <v>26.4</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="14" t="s">
+    <row r="77" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="15"/>
+      <c r="B77" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C77">
@@ -5518,7 +5992,7 @@
       <c r="D77" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F77">
@@ -5527,9 +6001,15 @@
       <c r="G77">
         <v>18.5</v>
       </c>
+      <c r="H77" t="s">
+        <v>126</v>
+      </c>
       <c r="I77">
         <v>21</v>
       </c>
+      <c r="J77" t="s">
+        <v>160</v>
+      </c>
       <c r="K77">
         <v>21.6</v>
       </c>
@@ -5554,21 +6034,24 @@
       <c r="R77">
         <v>25.7</v>
       </c>
+      <c r="S77" t="s">
+        <v>166</v>
+      </c>
       <c r="T77">
         <v>27.2</v>
       </c>
       <c r="U77">
         <v>28.9</v>
       </c>
-      <c r="V77" s="17">
+      <c r="V77">
         <v>29.6</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="11">
+    <row r="78" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="14">
         <v>291362</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C78">
@@ -5577,7 +6060,7 @@
       <c r="D78" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F78">
@@ -5586,9 +6069,15 @@
       <c r="G78">
         <v>20.399999999999999</v>
       </c>
+      <c r="H78" t="s">
+        <v>118</v>
+      </c>
       <c r="I78">
         <v>20.5</v>
       </c>
+      <c r="J78" t="s">
+        <v>156</v>
+      </c>
       <c r="K78">
         <v>23</v>
       </c>
@@ -5613,19 +6102,22 @@
       <c r="R78">
         <v>25.5</v>
       </c>
+      <c r="S78" t="s">
+        <v>167</v>
+      </c>
       <c r="T78">
         <v>25.4</v>
       </c>
       <c r="U78">
         <v>26.1</v>
       </c>
-      <c r="V78" s="17">
+      <c r="V78">
         <v>27.6</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14" t="s">
+    <row r="79" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="15"/>
+      <c r="B79" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C79">
@@ -5634,7 +6126,7 @@
       <c r="D79" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F79">
@@ -5643,9 +6135,15 @@
       <c r="G79">
         <v>18.899999999999999</v>
       </c>
+      <c r="H79" t="s">
+        <v>155</v>
+      </c>
       <c r="I79">
         <v>20.3</v>
       </c>
+      <c r="J79" t="s">
+        <v>129</v>
+      </c>
       <c r="K79">
         <v>22.1</v>
       </c>
@@ -5670,21 +6168,24 @@
       <c r="R79">
         <v>26.8</v>
       </c>
+      <c r="S79" t="s">
+        <v>168</v>
+      </c>
       <c r="T79">
         <v>28.2</v>
       </c>
       <c r="U79">
         <v>29.8</v>
       </c>
-      <c r="V79" s="17">
+      <c r="V79">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="11">
+    <row r="80" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="14">
         <v>291363</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C80">
@@ -5693,7 +6194,7 @@
       <c r="D80" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E80" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F80">
@@ -5702,9 +6203,15 @@
       <c r="G80">
         <v>19.600000000000001</v>
       </c>
+      <c r="H80" t="s">
+        <v>156</v>
+      </c>
       <c r="I80">
         <v>19.5</v>
       </c>
+      <c r="J80" t="s">
+        <v>113</v>
+      </c>
       <c r="K80">
         <v>20.6</v>
       </c>
@@ -5729,19 +6236,22 @@
       <c r="R80">
         <v>22.3</v>
       </c>
+      <c r="S80" t="s">
+        <v>169</v>
+      </c>
       <c r="T80">
         <v>24</v>
       </c>
       <c r="U80">
         <v>25.9</v>
       </c>
-      <c r="V80" s="17">
+      <c r="V80">
         <v>26.9</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
-      <c r="B81" s="14" t="s">
+    <row r="81" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="15"/>
+      <c r="B81" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C81">
@@ -5750,7 +6260,7 @@
       <c r="D81" t="s">
         <v>6</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F81">
@@ -5759,9 +6269,15 @@
       <c r="G81">
         <v>18.100000000000001</v>
       </c>
+      <c r="H81" t="s">
+        <v>148</v>
+      </c>
       <c r="I81">
         <v>18.399999999999999</v>
       </c>
+      <c r="J81" t="s">
+        <v>146</v>
+      </c>
       <c r="K81">
         <v>20.7</v>
       </c>
@@ -5786,21 +6302,24 @@
       <c r="R81">
         <v>21.3</v>
       </c>
+      <c r="S81" t="s">
+        <v>145</v>
+      </c>
       <c r="T81">
         <v>21.9</v>
       </c>
       <c r="U81">
         <v>21.8</v>
       </c>
-      <c r="V81" s="17">
+      <c r="V81">
         <v>23.2</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="11">
+    <row r="82" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="14">
         <v>291364</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C82">
@@ -5809,7 +6328,7 @@
       <c r="D82" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F82">
@@ -5818,9 +6337,15 @@
       <c r="G82">
         <v>17.399999999999999</v>
       </c>
+      <c r="H82" t="s">
+        <v>157</v>
+      </c>
       <c r="I82">
         <v>19.3</v>
       </c>
+      <c r="J82" t="s">
+        <v>150</v>
+      </c>
       <c r="K82">
         <v>19.5</v>
       </c>
@@ -5845,19 +6370,22 @@
       <c r="R82">
         <v>20.6</v>
       </c>
+      <c r="S82" t="s">
+        <v>152</v>
+      </c>
       <c r="T82">
         <v>20.7</v>
       </c>
       <c r="U82">
         <v>21.1</v>
       </c>
-      <c r="V82" s="17">
+      <c r="V82">
         <v>21.8</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14" t="s">
+    <row r="83" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="15"/>
+      <c r="B83" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C83">
@@ -5866,7 +6394,7 @@
       <c r="D83" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="15" t="s">
+      <c r="E83" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F83">
@@ -5875,9 +6403,15 @@
       <c r="G83">
         <v>21.8</v>
       </c>
+      <c r="H83" t="s">
+        <v>136</v>
+      </c>
       <c r="I83">
         <v>24</v>
       </c>
+      <c r="J83" t="s">
+        <v>161</v>
+      </c>
       <c r="K83">
         <v>23.8</v>
       </c>
@@ -5902,21 +6436,24 @@
       <c r="R83">
         <v>29.2</v>
       </c>
+      <c r="S83" t="s">
+        <v>170</v>
+      </c>
       <c r="T83">
         <v>31</v>
       </c>
       <c r="U83">
         <v>31.5</v>
       </c>
-      <c r="V83" s="17">
+      <c r="V83">
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="11">
+    <row r="84" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="14">
         <v>291365</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C84">
@@ -5925,7 +6462,7 @@
       <c r="D84" t="s">
         <v>6</v>
       </c>
-      <c r="E84" s="15" t="s">
+      <c r="E84" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F84">
@@ -5934,9 +6471,15 @@
       <c r="G84">
         <v>18.100000000000001</v>
       </c>
+      <c r="H84" t="s">
+        <v>123</v>
+      </c>
       <c r="I84">
         <v>20.2</v>
       </c>
+      <c r="J84" t="s">
+        <v>162</v>
+      </c>
       <c r="K84">
         <v>20.6</v>
       </c>
@@ -5961,19 +6504,22 @@
       <c r="R84">
         <v>24.8</v>
       </c>
+      <c r="S84" t="s">
+        <v>161</v>
+      </c>
       <c r="T84">
         <v>25.5</v>
       </c>
       <c r="U84">
         <v>27.4</v>
       </c>
-      <c r="V84" s="17">
+      <c r="V84">
         <v>27.3</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="14" t="s">
+    <row r="85" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="15"/>
+      <c r="B85" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C85">
@@ -5982,7 +6528,7 @@
       <c r="D85" t="s">
         <v>6</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F85">
@@ -5991,9 +6537,15 @@
       <c r="G85">
         <v>20.3</v>
       </c>
+      <c r="H85" t="s">
+        <v>139</v>
+      </c>
       <c r="I85">
         <v>22</v>
       </c>
+      <c r="J85" t="s">
+        <v>163</v>
+      </c>
       <c r="K85">
         <v>24.6</v>
       </c>
@@ -6018,21 +6570,24 @@
       <c r="R85">
         <v>31.4</v>
       </c>
+      <c r="S85" t="s">
+        <v>171</v>
+      </c>
       <c r="T85">
         <v>29.9</v>
       </c>
       <c r="U85">
         <v>31.7</v>
       </c>
-      <c r="V85" s="17">
+      <c r="V85">
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="11">
+    <row r="86" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="14">
         <v>291366</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C86">
@@ -6041,7 +6596,7 @@
       <c r="D86" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E86" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F86">
@@ -6050,9 +6605,15 @@
       <c r="G86">
         <v>17.5</v>
       </c>
+      <c r="H86" t="s">
+        <v>158</v>
+      </c>
       <c r="I86">
         <v>18.7</v>
       </c>
+      <c r="J86" t="s">
+        <v>162</v>
+      </c>
       <c r="K86">
         <v>20.3</v>
       </c>
@@ -6077,19 +6638,22 @@
       <c r="R86">
         <v>22.1</v>
       </c>
+      <c r="S86" t="s">
+        <v>136</v>
+      </c>
       <c r="T86">
         <v>24.5</v>
       </c>
       <c r="U86">
         <v>23.6</v>
       </c>
-      <c r="V86" s="17">
+      <c r="V86">
         <v>23.7</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
-      <c r="B87" s="14" t="s">
+    <row r="87" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="15"/>
+      <c r="B87" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C87">
@@ -6098,7 +6662,7 @@
       <c r="D87" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="15" t="s">
+      <c r="E87" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F87">
@@ -6107,9 +6671,15 @@
       <c r="G87">
         <v>19.5</v>
       </c>
+      <c r="H87" t="s">
+        <v>130</v>
+      </c>
       <c r="I87">
         <v>21.3</v>
       </c>
+      <c r="J87" t="s">
+        <v>155</v>
+      </c>
       <c r="K87">
         <v>22.1</v>
       </c>
@@ -6134,21 +6704,24 @@
       <c r="R87">
         <v>24.8</v>
       </c>
+      <c r="S87" t="s">
+        <v>160</v>
+      </c>
       <c r="T87">
         <v>26.3</v>
       </c>
       <c r="U87">
         <v>27.2</v>
       </c>
-      <c r="V87" s="17">
+      <c r="V87">
         <v>27.9</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="11">
+    <row r="88" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="14">
         <v>291367</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C88">
@@ -6157,7 +6730,7 @@
       <c r="D88" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E88" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F88">
@@ -6166,9 +6739,15 @@
       <c r="G88">
         <v>18.600000000000001</v>
       </c>
+      <c r="H88" t="s">
+        <v>159</v>
+      </c>
       <c r="I88">
         <v>20.3</v>
       </c>
+      <c r="J88" t="s">
+        <v>144</v>
+      </c>
       <c r="K88">
         <v>22.3</v>
       </c>
@@ -6193,19 +6772,22 @@
       <c r="R88">
         <v>24.5</v>
       </c>
+      <c r="S88" t="s">
+        <v>147</v>
+      </c>
       <c r="T88">
         <v>24.5</v>
       </c>
       <c r="U88">
         <v>24.2</v>
       </c>
-      <c r="V88" s="17">
+      <c r="V88">
         <v>25.1</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="14" t="s">
+    <row r="89" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="15"/>
+      <c r="B89" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C89">
@@ -6214,7 +6796,7 @@
       <c r="D89" t="s">
         <v>6</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F89">
@@ -6223,9 +6805,15 @@
       <c r="G89">
         <v>18.8</v>
       </c>
+      <c r="H89" t="s">
+        <v>123</v>
+      </c>
       <c r="I89">
         <v>19.899999999999999</v>
       </c>
+      <c r="J89" t="s">
+        <v>164</v>
+      </c>
       <c r="K89">
         <v>21.3</v>
       </c>
@@ -6250,13 +6838,16 @@
       <c r="R89">
         <v>23.6</v>
       </c>
+      <c r="S89" t="s">
+        <v>172</v>
+      </c>
       <c r="T89">
         <v>22.7</v>
       </c>
       <c r="U89">
         <v>23.6</v>
       </c>
-      <c r="V89" s="17">
+      <c r="V89">
         <v>24.8</v>
       </c>
     </row>
@@ -6271,6 +6862,7 @@
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="A84:A85"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>